--- a/data/Bacardi-ToolData.xlsx
+++ b/data/Bacardi-ToolData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bacardi\bacardi-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1212DFC-76F7-4314-8DC1-648B821A7575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92713B-5D70-46AF-8809-75379E9401FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{B5494F71-A56B-4CCC-B0BF-9E94B3AA8A69}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Inventory Planning" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2078,10 +2078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817DA198-1E63-4E22-AABF-F3D0E2C7FFF3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2115,7 +2116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>214.8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>216.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>213.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>216.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>215.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>213.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>226.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>318.60000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>311.10000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>320.89999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>310.10000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>316.8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>317.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>311.10000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>456.6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>444.4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>401.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>428.9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>475.1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>900.1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>878.4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>899.3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>919.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>826.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>866.3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>822.2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>2015</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>214.8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>216.1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>2017</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>213.1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>216.1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>215.8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>213.1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>226.7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>2015</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>318.60000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>311.10000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>2017</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>320.89999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>310.10000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>2019</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>316.8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>317.7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>311.10000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>2022</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>2015</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>456.6</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>2016</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>444.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>2018</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>401.5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>2019</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>428.9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>475.1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>2015</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>900.1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>878.4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>2017</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>899.3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>2018</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>919.5</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>2019</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>826.7</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>866.3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -6380,6 +6381,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H165" xr:uid="{817DA198-1E63-4E22-AABF-F3D0E2C7FFF3}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Forecasted"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
